--- a/project_euler/p085.xlsx
+++ b/project_euler/p085.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Google Drive\4-Python\project_euler\p085\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F13830-710B-4BFD-8B8A-1C0DEB007886}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E129237-13BE-4162-A8BB-DB0AF7A0C0B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A7D55C54-0C04-4A18-95AA-38ED78B902C7}"/>
+    <workbookView xWindow="5340" yWindow="2460" windowWidth="21000" windowHeight="11865" xr2:uid="{A7D55C54-0C04-4A18-95AA-38ED78B902C7}"/>
   </bookViews>
   <sheets>
     <sheet name="LP" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>x</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>&lt;=</t>
+  </si>
+  <si>
+    <t>int</t>
   </si>
 </sst>
 </file>
@@ -174,7 +177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -186,6 +189,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -930,7 +934,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D437676-7292-4EF9-A284-65C7810C0CEF}">
-  <dimension ref="L4:O12"/>
+  <dimension ref="L4:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
@@ -938,14 +942,15 @@
   <cols>
     <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="12:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L5" t="s">
         <v>0</v>
       </c>
@@ -956,11 +961,14 @@
         <v>6</v>
       </c>
       <c r="O5">
-        <f>SQRT($M$8*4/2)</f>
-        <v>2000</v>
+        <f>_xlfn.FLOOR.MATH((-1+(1-4*(-2)*$M$8)^0.5)/2)</f>
+        <v>1999</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="6" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="12:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L6" t="s">
         <v>1</v>
       </c>
@@ -971,11 +979,14 @@
         <v>6</v>
       </c>
       <c r="O6">
-        <f>SQRT($M$8*4/2)</f>
-        <v>2000</v>
+        <f>_xlfn.FLOOR.MATH((-1+(1-4*(-2)*$M$8)^0.5)/2)</f>
+        <v>1999</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="8" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L8" t="s">
         <v>5</v>
       </c>
@@ -984,7 +995,7 @@
       </c>
       <c r="N8" s="3"/>
     </row>
-    <row r="10" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L10" t="s">
         <v>2</v>
       </c>
@@ -993,7 +1004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="12:16" x14ac:dyDescent="0.25">
       <c r="L12" t="s">
         <v>4</v>
       </c>
